--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value563.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value563.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.3898615642303004</v>
+        <v>1.066983461380005</v>
       </c>
       <c r="B1">
-        <v>0.6248498730136092</v>
+        <v>1.425067543983459</v>
       </c>
       <c r="C1">
-        <v>1.739667118428865</v>
+        <v>2.318607807159424</v>
       </c>
       <c r="D1">
-        <v>3.257022557511231</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>2.322392330787057</v>
+        <v>1.798639416694641</v>
       </c>
     </row>
   </sheetData>
